--- a/public/hello_world.xlsx
+++ b/public/hello_world.xlsx
@@ -15,24 +15,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
-  <si>
-    <t>NO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+  <si>
+    <t>No.</t>
   </si>
   <si>
     <t>Nama</t>
   </si>
   <si>
-    <t>Umur</t>
-  </si>
-  <si>
-    <t>ghufron</t>
-  </si>
-  <si>
-    <t>fahmi</t>
-  </si>
-  <si>
-    <t>arif</t>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>Legalitas</t>
+  </si>
+  <si>
+    <t>Tipe_Milik</t>
+  </si>
+  <si>
+    <t>Alas_Hak</t>
+  </si>
+  <si>
+    <t>Luas_Lahan</t>
+  </si>
+  <si>
+    <t>Jml_Lantai</t>
+  </si>
+  <si>
+    <t>Luas_BG</t>
+  </si>
+  <si>
+    <t>Tinggi_BG</t>
+  </si>
+  <si>
+    <t>Klas_Tggi</t>
+  </si>
+  <si>
+    <t>Kompleks</t>
+  </si>
+  <si>
+    <t>Kepadatan</t>
+  </si>
+  <si>
+    <t>Permanensi</t>
+  </si>
+  <si>
+    <t>Risk_Bakar</t>
+  </si>
+  <si>
+    <t>Penangkal</t>
+  </si>
+  <si>
+    <t>Stktur_Bwh</t>
+  </si>
+  <si>
+    <t>Stktur_BG</t>
+  </si>
+  <si>
+    <t>Stktur_Atp</t>
+  </si>
+  <si>
+    <t>SDN Ampelgading 1</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>Negara</t>
+  </si>
+  <si>
+    <t>Letter C</t>
+  </si>
+  <si>
+    <t>Sedang</t>
+  </si>
+  <si>
+    <t>Lokasi Kepadatan Sedang</t>
+  </si>
+  <si>
+    <t>Permanen</t>
+  </si>
+  <si>
+    <t>Rendah</t>
+  </si>
+  <si>
+    <t>Pasif</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SDN Bulurejo 1</t>
+  </si>
+  <si>
+    <t>SDN Candil 1</t>
   </si>
 </sst>
 </file>
@@ -40,9 +118,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -68,9 +155,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -371,63 +461,281 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="6" max="6" width="10.42578125" customWidth="true" style="0"/>
+    <col min="8" max="8" width="11" customWidth="true" style="0"/>
+    <col min="9" max="9" width="10.28515625" customWidth="true" style="0"/>
+    <col min="11" max="11" width="9.85546875" customWidth="true" style="0"/>
+    <col min="13" max="13" width="9.7109375" customWidth="true" style="0"/>
+    <col min="14" max="14" width="10.42578125" customWidth="true" style="0"/>
+    <col min="15" max="15" width="11.5703125" customWidth="true" style="0"/>
+    <col min="16" max="16" width="10.42578125" customWidth="true" style="0"/>
+    <col min="17" max="17" width="10.140625" customWidth="true" style="0"/>
+    <col min="18" max="18" width="11.140625" customWidth="true" style="0"/>
+    <col min="19" max="19" width="9.85546875" customWidth="true" style="0"/>
+    <col min="20" max="20" width="10.42578125" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C2">
+        <v>121.2</v>
+      </c>
+      <c r="D2">
+        <v>12.33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>123.12</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>112.314</v>
+      </c>
+      <c r="K2">
         <v>11</v>
       </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>121.2</v>
+      </c>
+      <c r="D3">
+        <v>12.33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>123.12</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>112.314</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>121.2</v>
+      </c>
+      <c r="D4">
+        <v>12.33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>123.12</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>112.314</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
